--- a/data/row_data/Сухое просеивание архан 2019.xlsx
+++ b/data/row_data/Сухое просеивание архан 2019.xlsx
@@ -1,125 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="archangelky" vbProcedure="false">Sheet1!$A$1:$N$10</definedName>
+    <definedName name="archangelky" localSheetId="0">Sheet1!$A$1:$N$10</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="22">
   <si>
-    <t xml:space="preserve">размер_агрегатов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вес</t>
-  </si>
-  <si>
-    <t xml:space="preserve">повторность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;10мм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Архангельский 2019 ТТ повторность 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-7мм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-5мм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-3мм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-2мм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-1мм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-0.5мм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5-0.25мм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Архангельский 2019 ТТ повторность 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Архангельский 2019 ТТ повторность 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Архангельский 2019 ТТ повторность 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Архангельский 2019 ТТ повторность 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Архангельский 2019 ПП повторность 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Архангельский 2019 ПП повторность 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Архангельский 2019 ПП повторность 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Архангельский 2019 ПП повторность 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Архангельский 2019 ПП повторность 5</t>
+    <t>размер_агрегатов</t>
+  </si>
+  <si>
+    <t>вес</t>
+  </si>
+  <si>
+    <t>повторность</t>
+  </si>
+  <si>
+    <t>&gt;10мм</t>
+  </si>
+  <si>
+    <t>Архангельский 2019 ТТ повторность 1</t>
+  </si>
+  <si>
+    <t>10-7мм</t>
+  </si>
+  <si>
+    <t>7-5мм</t>
+  </si>
+  <si>
+    <t>5-3мм</t>
+  </si>
+  <si>
+    <t>3-2мм</t>
+  </si>
+  <si>
+    <t>2-1мм</t>
+  </si>
+  <si>
+    <t>1-0.5мм</t>
+  </si>
+  <si>
+    <t>0.5-0.25мм</t>
+  </si>
+  <si>
+    <t>&lt;0.25</t>
+  </si>
+  <si>
+    <t>Архангельский 2019 ТТ повторность 2</t>
+  </si>
+  <si>
+    <t>Архангельский 2019 ТТ повторность 3</t>
+  </si>
+  <si>
+    <t>Архангельский 2019 ТТ повторность 4</t>
+  </si>
+  <si>
+    <t>Архангельский 2019 ТТ повторность 5</t>
+  </si>
+  <si>
+    <t>Архангельский 2019 ПП повторность 1</t>
+  </si>
+  <si>
+    <t>Архангельский 2019 ПП повторность 2</t>
+  </si>
+  <si>
+    <t>Архангельский 2019 ПП повторность 3</t>
+  </si>
+  <si>
+    <t>Архангельский 2019 ПП повторность 4</t>
+  </si>
+  <si>
+    <t>Архангельский 2019 ПП повторность 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,8 +113,15 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -139,1089 +129,1341 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F818D"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C83" activeCellId="0" sqref="C83:C91"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="30.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="30.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="27.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="30.14"/>
+    <col min="1" max="1" style="4" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="49.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="17.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="3">
         <v>1965</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="3">
         <v>162</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="3">
         <v>152</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="3">
         <v>196</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="3">
         <v>163</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="3">
         <v>269</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="3">
         <v>305</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="3">
         <v>93</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="3">
         <v>173</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="3">
         <v>1909</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="3">
         <v>186</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="3">
         <v>162</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="3">
         <v>209</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
+      <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="3">
         <v>166</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="3">
         <v>241</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="3">
         <v>212</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="3">
         <v>117</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="3">
         <v>149</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
+      <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="3">
         <v>1260</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
+      <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="3">
         <v>229</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5">
+      <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="3">
         <v>194</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5">
+      <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="3">
         <v>278</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16.5">
+      <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="3">
         <v>225</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="16.5">
+      <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="3">
         <v>604</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="16.5">
+      <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="3">
         <v>168</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="16.5">
+      <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="3">
         <v>259</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="16.5">
+      <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="3">
         <v>268</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="16.5">
+      <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="3">
         <v>1485</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="16.5">
+      <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="3">
         <v>196</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="16.5">
+      <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="3">
         <v>169</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="16.5">
+      <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="3">
         <v>198</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="16.5">
+      <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="3">
         <v>161</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="16.5">
+      <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="3">
         <v>377</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="16.5">
+      <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="3">
         <v>176</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="16.5">
+      <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="3">
         <v>102</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="16.5">
+      <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="3">
         <v>147</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="16.5">
+      <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="3">
         <v>2299</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="16.5">
+      <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="3">
         <v>233</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="16.5">
+      <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="3">
         <v>170</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="16.5">
+      <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="3">
         <v>232</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="16.5">
+      <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="3">
         <v>165</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="16.5">
+      <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="3">
         <v>310</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="16.5">
+      <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="3">
         <v>438</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="16.5">
+      <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="3">
         <v>53</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="16.5">
+      <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="3">
         <v>54</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="16.5">
+      <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="3">
         <v>2519</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="16.5">
+      <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="3">
         <v>300</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="16.5">
+      <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="3">
         <v>279</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="16.5">
+      <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="3">
         <v>395</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="16.5">
+      <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="3">
         <v>228</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="16.5">
+      <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="3">
         <v>343</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="16.5">
+      <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="3">
         <v>37</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="16.5">
+      <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="3">
         <v>116</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="16.5">
+      <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="3">
         <v>225</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="16.5">
+      <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="3">
         <v>1629</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="16.5">
+      <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="3">
         <v>254</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="16.5">
+      <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="3">
         <v>203</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="16.5">
+      <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="3">
         <v>270</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="16.5">
+      <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="3">
         <v>162</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="16.5">
+      <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="3">
         <v>258</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="16.5">
+      <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="3">
         <v>28</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="16.5">
+      <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="3">
         <v>64</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="16.5">
+      <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="3">
         <v>72</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="16.5">
+      <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="3">
         <v>1982</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="16.5">
+      <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="3">
         <v>310</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="16.5">
+      <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="3">
         <v>278</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="16.5">
+      <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="3">
         <v>274</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="16.5">
+      <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69" s="3">
         <v>215</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="16.5">
+      <c r="A70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70" s="3">
         <v>349</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="16.5">
+      <c r="A71" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71" s="3">
         <v>30</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="16.5">
+      <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72" s="3">
         <v>99</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="16.5">
+      <c r="A73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73" s="3">
         <v>151</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="16.5">
+      <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74" s="3">
         <v>2165</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="16.5">
+      <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75" s="3">
         <v>233</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="16.5">
+      <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76" s="3">
         <v>244</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="16.5">
+      <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77" s="3">
         <v>236</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="16.5">
+      <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78" s="3">
         <v>171</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="16.5">
+      <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79" s="3">
         <v>127</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="16.5">
+      <c r="A80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80" s="3">
         <v>25</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="16.5">
+      <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81" s="3">
         <v>74</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="16.5">
+      <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82" s="3">
         <v>96</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="16.5">
+      <c r="A83" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83" s="3">
         <v>1711</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="16.5">
+      <c r="A84" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84" s="3">
         <v>209</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="16.5">
+      <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85" s="3">
         <v>213</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="16.5">
+      <c r="A86" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86" s="3">
         <v>242</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="16.5">
+      <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87" s="3">
         <v>185</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="16.5">
+      <c r="A88" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88" s="3">
         <v>227</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="16.5">
+      <c r="A89" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89" s="3">
         <v>85</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="16.5">
+      <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90" s="3">
         <v>78</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="16.5">
+      <c r="A91" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91" s="3">
         <v>71</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" s="1" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>